--- a/biology/Zoologie/Decipiphantes_decipiens/Decipiphantes_decipiens.xlsx
+++ b/biology/Zoologie/Decipiphantes_decipiens/Decipiphantes_decipiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Decipiphantes decipiens, unique représentant du genre Decipiphantes, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decipiphantes decipiens, unique représentant du genre Decipiphantes, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Russie, en Finlande et en Mongolie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Russie, en Finlande et en Mongolie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Decipiphantes decipiens mesure de 1,70 à 2,10 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decipiphantes decipiens mesure de 1,70 à 2,10 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1879 : Arachniden aus Sibirien und Novaja Semlja, eingesammelt von der schwedischen Expedition im Jahre 1875. Kongliga Svenska Vetenskaps Academiens nya Handlingar, vol. 16, no 5, p. 1-136.
 Saaristo &amp; Tanasevitch, 1996 : Redelimitation of the subfamily Micronetinae Hull, 1920 and the genus Lepthyphantes Menge, 1866 with descriptions of some new genera (Aranei, Linyphiidae). Ber. nat.-med. Verein Innsbruck, vol. 83, p. 163-186 (texte intégral).</t>
